--- a/CancerCandidateCodes/cancer_candidate_codes_initial_review_v1.xlsx
+++ b/CancerCandidateCodes/cancer_candidate_codes_initial_review_v1.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/psyc0981_ox_ac_uk/Documents/Documents/GitHub/CodelistGeneratorWp2Cancers/CancerCandidateCodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{276BD902-0C1D-4243-8D1D-A0BB2B921EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7AAFC6-C360-4D7A-9A16-D52E52E32DC6}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{276BD902-0C1D-4243-8D1D-A0BB2B921EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582D5C60-2135-4164-B270-F6F161D1154D}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
     <sheet name="Version history" sheetId="11" r:id="rId2"/>
-    <sheet name="liver_cancer_codes" sheetId="1" r:id="rId3"/>
-    <sheet name="liver_bile_duct_cancer_codes " sheetId="8" r:id="rId4"/>
-    <sheet name="lung_cancer_codes" sheetId="6" r:id="rId5"/>
-    <sheet name="stomach_cancer_codes" sheetId="2" r:id="rId6"/>
-    <sheet name="headneck_cancer_codes" sheetId="3" r:id="rId7"/>
-    <sheet name="breast_cancer_codes" sheetId="4" r:id="rId8"/>
-    <sheet name="colorectal_cancer_codes" sheetId="5" r:id="rId9"/>
-    <sheet name="colorectal_cancer_codes_BROAD" sheetId="10" r:id="rId10"/>
-    <sheet name="Colorectal_Specific_read1" sheetId="9" r:id="rId11"/>
-    <sheet name="prostate_cancer_codes" sheetId="7" r:id="rId12"/>
+    <sheet name="pancreatic_cancer_codes" sheetId="13" r:id="rId3"/>
+    <sheet name="liver_cancer_codes" sheetId="1" r:id="rId4"/>
+    <sheet name="liver_bile_duct_cancer_codes " sheetId="8" r:id="rId5"/>
+    <sheet name="lung_cancer_codes" sheetId="6" r:id="rId6"/>
+    <sheet name="stomach_cancer_codes" sheetId="2" r:id="rId7"/>
+    <sheet name="headneck_cancer_codes" sheetId="3" r:id="rId8"/>
+    <sheet name="breast_cancer_codes" sheetId="4" r:id="rId9"/>
+    <sheet name="colorectal_cancer_codes" sheetId="5" r:id="rId10"/>
+    <sheet name="colorectal_cancer_codes_BROAD" sheetId="10" r:id="rId11"/>
+    <sheet name="Colorectal_Specific_read1" sheetId="9" r:id="rId12"/>
+    <sheet name="prostate_cancer_codes" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="1304">
   <si>
     <t>concept_id</t>
   </si>
@@ -3802,6 +3803,159 @@
   </si>
   <si>
     <t>prostate_cancer_codes</t>
+  </si>
+  <si>
+    <t>Malignant tumor of body of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant tumor of tail of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant tumor of endocrine pancreas</t>
+  </si>
+  <si>
+    <t>Malignant tumor of exocrine pancreas</t>
+  </si>
+  <si>
+    <t>Local recurrence of malignant tumor of pancreas</t>
+  </si>
+  <si>
+    <t>Metastasis from malignant tumor of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant tumor of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant tumor of head of pancreas</t>
+  </si>
+  <si>
+    <t>Carcinoma of body of pancreas</t>
+  </si>
+  <si>
+    <t>Injury of body of pancreas without open wound into abdominal cavity</t>
+  </si>
+  <si>
+    <t>Primary adenocarcinoma of body of pancreas</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of body of pancreas</t>
+  </si>
+  <si>
+    <t>Injury of tail of pancreas with open wound into abdominal cavity</t>
+  </si>
+  <si>
+    <t>Carcinoma of tail of pancreas</t>
+  </si>
+  <si>
+    <t>Injury of tail of pancreas without open wound into abdominal cavity</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of tail of pancreas</t>
+  </si>
+  <si>
+    <t>Injury of head of pancreas with open wound into abdominal cavity</t>
+  </si>
+  <si>
+    <t>Carcinoma of head of pancreas</t>
+  </si>
+  <si>
+    <t>Injury of head of pancreas without open wound into cavity</t>
+  </si>
+  <si>
+    <t>Primary adenocarcinoma of head of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant tumor of Islets of Langerhans</t>
+  </si>
+  <si>
+    <t>Carcinoma of endocrine pancreas</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of islets of Langerhans</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of sphincter of Oddi</t>
+  </si>
+  <si>
+    <t>Malignant tumor of pancreatic duct</t>
+  </si>
+  <si>
+    <t>Cystadenocarcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Carcinoma of ampulla of Vater</t>
+  </si>
+  <si>
+    <t>Malignant tumor of ampulla of Vater</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of ampulla of Vater</t>
+  </si>
+  <si>
+    <t>Primary adenocarcinoma of ampulla of Vater</t>
+  </si>
+  <si>
+    <t>Squamous cell carcinoma of exocrine pancreas</t>
+  </si>
+  <si>
+    <t>Pancreatic ductal adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of pancreatic duct</t>
+  </si>
+  <si>
+    <t>Overlapping malignant neoplasm of pancreas</t>
+  </si>
+  <si>
+    <t>Primary adenocarcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of ectopic pancreatic tissue</t>
+  </si>
+  <si>
+    <t>Metastasis to pancreas of unknown primary</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of pancreas</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of head of pancreas</t>
+  </si>
+  <si>
+    <t>Carcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Malignant insulinoma</t>
+  </si>
+  <si>
+    <t>Familial malignant neoplasm of pancreas</t>
+  </si>
+  <si>
+    <t>Invasive intraductal papillary-mucinous carcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Solid pseudopapillary carcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Serous cystadenocarcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Acinar cell carcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Mucinous cystadenocarcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>Mucinous cystic neoplasm with invasive carcinoma of pancreas</t>
+  </si>
+  <si>
+    <t>pancreatic_cancer_codes</t>
+  </si>
+  <si>
+    <t>Additional of pancreatic cancer phenotype</t>
   </si>
 </sst>
 </file>
@@ -4174,10 +4328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657DBF8-C2B3-439C-852A-84F3A2DB68C3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4273,12 +4427,1860 @@
         <v>1252</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>1302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>42872396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>42537577</v>
+      </c>
+      <c r="B3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>40492939</v>
+      </c>
+      <c r="B4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>553</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>37208245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>37018659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>37016239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>36717495</v>
+      </c>
+      <c r="B8" t="s">
+        <v>784</v>
+      </c>
+      <c r="C8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>36715912</v>
+      </c>
+      <c r="B9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>36715911</v>
+      </c>
+      <c r="B10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D10" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>36713361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>553</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>36683531</v>
+      </c>
+      <c r="B12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C12" t="s">
+        <v>793</v>
+      </c>
+      <c r="D12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>714</v>
+      </c>
+      <c r="H12" t="s">
+        <v>553</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>4322376</v>
+      </c>
+      <c r="B13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C13" t="s">
+        <v>795</v>
+      </c>
+      <c r="D13" t="s">
+        <v>551</v>
+      </c>
+      <c r="E13" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>553</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>4312240</v>
+      </c>
+      <c r="B14" t="s">
+        <v>796</v>
+      </c>
+      <c r="C14" t="s">
+        <v>797</v>
+      </c>
+      <c r="D14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>553</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>4312001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C15" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" t="s">
+        <v>551</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>553</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>4310858</v>
+      </c>
+      <c r="B16" t="s">
+        <v>800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>553</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>4307687</v>
+      </c>
+      <c r="B17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D17" t="s">
+        <v>551</v>
+      </c>
+      <c r="E17" t="s">
+        <v>552</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>553</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>4256776</v>
+      </c>
+      <c r="B18" t="s">
+        <v>804</v>
+      </c>
+      <c r="C18" t="s">
+        <v>805</v>
+      </c>
+      <c r="D18" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" t="s">
+        <v>552</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>553</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>4247719</v>
+      </c>
+      <c r="B19" t="s">
+        <v>806</v>
+      </c>
+      <c r="C19" t="s">
+        <v>807</v>
+      </c>
+      <c r="D19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E19" t="s">
+        <v>552</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>553</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>4246125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>808</v>
+      </c>
+      <c r="C20" t="s">
+        <v>809</v>
+      </c>
+      <c r="D20" t="s">
+        <v>551</v>
+      </c>
+      <c r="E20" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>703</v>
+      </c>
+      <c r="H20" t="s">
+        <v>553</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>4207183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>810</v>
+      </c>
+      <c r="C21" t="s">
+        <v>811</v>
+      </c>
+      <c r="D21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E21" t="s">
+        <v>552</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>553</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>4207182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>812</v>
+      </c>
+      <c r="C22" t="s">
+        <v>813</v>
+      </c>
+      <c r="D22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E22" t="s">
+        <v>552</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>4200514</v>
+      </c>
+      <c r="B23" t="s">
+        <v>814</v>
+      </c>
+      <c r="C23" t="s">
+        <v>815</v>
+      </c>
+      <c r="D23" t="s">
+        <v>551</v>
+      </c>
+      <c r="E23" t="s">
+        <v>552</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>553</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>4198567</v>
+      </c>
+      <c r="B24" t="s">
+        <v>816</v>
+      </c>
+      <c r="C24" t="s">
+        <v>817</v>
+      </c>
+      <c r="D24" t="s">
+        <v>551</v>
+      </c>
+      <c r="E24" t="s">
+        <v>552</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>553</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>4193872</v>
+      </c>
+      <c r="B25" t="s">
+        <v>818</v>
+      </c>
+      <c r="C25" t="s">
+        <v>819</v>
+      </c>
+      <c r="D25" t="s">
+        <v>551</v>
+      </c>
+      <c r="E25" t="s">
+        <v>552</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>553</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>4193871</v>
+      </c>
+      <c r="B26" t="s">
+        <v>820</v>
+      </c>
+      <c r="C26" t="s">
+        <v>821</v>
+      </c>
+      <c r="D26" t="s">
+        <v>551</v>
+      </c>
+      <c r="E26" t="s">
+        <v>552</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>553</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>4193165</v>
+      </c>
+      <c r="B27" t="s">
+        <v>822</v>
+      </c>
+      <c r="C27" t="s">
+        <v>823</v>
+      </c>
+      <c r="D27" t="s">
+        <v>551</v>
+      </c>
+      <c r="E27" t="s">
+        <v>552</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>553</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>4184850</v>
+      </c>
+      <c r="B28" t="s">
+        <v>824</v>
+      </c>
+      <c r="C28" t="s">
+        <v>825</v>
+      </c>
+      <c r="D28" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28" t="s">
+        <v>552</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>553</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>4181344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C29" t="s">
+        <v>827</v>
+      </c>
+      <c r="D29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E29" t="s">
+        <v>552</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>553</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>4180792</v>
+      </c>
+      <c r="B30" t="s">
+        <v>828</v>
+      </c>
+      <c r="C30" t="s">
+        <v>829</v>
+      </c>
+      <c r="D30" t="s">
+        <v>551</v>
+      </c>
+      <c r="E30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>553</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>4180791</v>
+      </c>
+      <c r="B31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C31" t="s">
+        <v>831</v>
+      </c>
+      <c r="D31" t="s">
+        <v>551</v>
+      </c>
+      <c r="E31" t="s">
+        <v>552</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>553</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>4180790</v>
+      </c>
+      <c r="B32" t="s">
+        <v>832</v>
+      </c>
+      <c r="C32" t="s">
+        <v>833</v>
+      </c>
+      <c r="D32" t="s">
+        <v>551</v>
+      </c>
+      <c r="E32" t="s">
+        <v>552</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>581</v>
+      </c>
+      <c r="H32" t="s">
+        <v>553</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>4151260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>834</v>
+      </c>
+      <c r="C33" t="s">
+        <v>835</v>
+      </c>
+      <c r="D33" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" t="s">
+        <v>552</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>553</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>4149847</v>
+      </c>
+      <c r="B34" t="s">
+        <v>836</v>
+      </c>
+      <c r="C34" t="s">
+        <v>837</v>
+      </c>
+      <c r="D34" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" t="s">
+        <v>552</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>553</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>4116240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>838</v>
+      </c>
+      <c r="C35" t="s">
+        <v>839</v>
+      </c>
+      <c r="D35" t="s">
+        <v>551</v>
+      </c>
+      <c r="E35" t="s">
+        <v>552</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>553</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>4115028</v>
+      </c>
+      <c r="B36" t="s">
+        <v>840</v>
+      </c>
+      <c r="C36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D36" t="s">
+        <v>551</v>
+      </c>
+      <c r="E36" t="s">
+        <v>552</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>553</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>4110575</v>
+      </c>
+      <c r="B37" t="s">
+        <v>842</v>
+      </c>
+      <c r="C37" t="s">
+        <v>843</v>
+      </c>
+      <c r="D37" t="s">
+        <v>551</v>
+      </c>
+      <c r="E37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>553</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>4089661</v>
+      </c>
+      <c r="B38" t="s">
+        <v>844</v>
+      </c>
+      <c r="C38" t="s">
+        <v>845</v>
+      </c>
+      <c r="D38" t="s">
+        <v>551</v>
+      </c>
+      <c r="E38" t="s">
+        <v>552</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>553</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>764981</v>
+      </c>
+      <c r="B39" t="s">
+        <v>846</v>
+      </c>
+      <c r="C39" t="s">
+        <v>847</v>
+      </c>
+      <c r="D39" t="s">
+        <v>551</v>
+      </c>
+      <c r="E39" t="s">
+        <v>552</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>553</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>443396</v>
+      </c>
+      <c r="B40" t="s">
+        <v>848</v>
+      </c>
+      <c r="C40" t="s">
+        <v>849</v>
+      </c>
+      <c r="D40" t="s">
+        <v>551</v>
+      </c>
+      <c r="E40" t="s">
+        <v>552</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>788</v>
+      </c>
+      <c r="H40" t="s">
+        <v>553</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>443391</v>
+      </c>
+      <c r="B41" t="s">
+        <v>850</v>
+      </c>
+      <c r="C41" t="s">
+        <v>851</v>
+      </c>
+      <c r="D41" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" t="s">
+        <v>552</v>
+      </c>
+      <c r="F41">
+        <v>58</v>
+      </c>
+      <c r="G41">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>553</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>443390</v>
+      </c>
+      <c r="B42" t="s">
+        <v>852</v>
+      </c>
+      <c r="C42" t="s">
+        <v>853</v>
+      </c>
+      <c r="D42" t="s">
+        <v>551</v>
+      </c>
+      <c r="E42" t="s">
+        <v>552</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>227</v>
+      </c>
+      <c r="H42" t="s">
+        <v>553</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>443384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>854</v>
+      </c>
+      <c r="C43" t="s">
+        <v>855</v>
+      </c>
+      <c r="D43" t="s">
+        <v>551</v>
+      </c>
+      <c r="E43" t="s">
+        <v>552</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>553</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>443382</v>
+      </c>
+      <c r="B44" t="s">
+        <v>856</v>
+      </c>
+      <c r="C44" t="s">
+        <v>857</v>
+      </c>
+      <c r="D44" t="s">
+        <v>551</v>
+      </c>
+      <c r="E44" t="s">
+        <v>552</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>553</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>443381</v>
+      </c>
+      <c r="B45" t="s">
+        <v>858</v>
+      </c>
+      <c r="C45" t="s">
+        <v>859</v>
+      </c>
+      <c r="D45" t="s">
+        <v>551</v>
+      </c>
+      <c r="E45" t="s">
+        <v>552</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>138</v>
+      </c>
+      <c r="H45" t="s">
+        <v>553</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>441800</v>
+      </c>
+      <c r="B46" t="s">
+        <v>860</v>
+      </c>
+      <c r="C46" t="s">
+        <v>861</v>
+      </c>
+      <c r="D46" t="s">
+        <v>551</v>
+      </c>
+      <c r="E46" t="s">
+        <v>552</v>
+      </c>
+      <c r="F46">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s">
+        <v>553</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>438979</v>
+      </c>
+      <c r="B47" t="s">
+        <v>862</v>
+      </c>
+      <c r="C47" t="s">
+        <v>863</v>
+      </c>
+      <c r="D47" t="s">
+        <v>551</v>
+      </c>
+      <c r="E47" t="s">
+        <v>552</v>
+      </c>
+      <c r="F47">
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>553</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>438699</v>
+      </c>
+      <c r="B48" t="s">
+        <v>864</v>
+      </c>
+      <c r="C48" t="s">
+        <v>865</v>
+      </c>
+      <c r="D48" t="s">
+        <v>551</v>
+      </c>
+      <c r="E48" t="s">
+        <v>552</v>
+      </c>
+      <c r="F48">
+        <v>94</v>
+      </c>
+      <c r="G48">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
+        <v>553</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>438090</v>
+      </c>
+      <c r="B49" t="s">
+        <v>866</v>
+      </c>
+      <c r="C49" t="s">
+        <v>867</v>
+      </c>
+      <c r="D49" t="s">
+        <v>551</v>
+      </c>
+      <c r="E49" t="s">
+        <v>552</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>553</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>437798</v>
+      </c>
+      <c r="B50" t="s">
+        <v>868</v>
+      </c>
+      <c r="C50" t="s">
+        <v>869</v>
+      </c>
+      <c r="D50" t="s">
+        <v>551</v>
+      </c>
+      <c r="E50" t="s">
+        <v>552</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>553</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>436635</v>
+      </c>
+      <c r="B51" t="s">
+        <v>870</v>
+      </c>
+      <c r="C51" t="s">
+        <v>871</v>
+      </c>
+      <c r="D51" t="s">
+        <v>551</v>
+      </c>
+      <c r="E51" t="s">
+        <v>552</v>
+      </c>
+      <c r="F51">
+        <v>44</v>
+      </c>
+      <c r="G51">
+        <v>138</v>
+      </c>
+      <c r="H51" t="s">
+        <v>553</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>435754</v>
+      </c>
+      <c r="B52" t="s">
+        <v>872</v>
+      </c>
+      <c r="C52" t="s">
+        <v>873</v>
+      </c>
+      <c r="D52" t="s">
+        <v>551</v>
+      </c>
+      <c r="E52" t="s">
+        <v>552</v>
+      </c>
+      <c r="F52">
+        <v>27</v>
+      </c>
+      <c r="G52">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s">
+        <v>553</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>432837</v>
+      </c>
+      <c r="B53" t="s">
+        <v>874</v>
+      </c>
+      <c r="C53" t="s">
+        <v>875</v>
+      </c>
+      <c r="D53" t="s">
+        <v>551</v>
+      </c>
+      <c r="E53" t="s">
+        <v>552</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>553</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>432257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>876</v>
+      </c>
+      <c r="C54" t="s">
+        <v>877</v>
+      </c>
+      <c r="D54" t="s">
+        <v>551</v>
+      </c>
+      <c r="E54" t="s">
+        <v>552</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>553</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>197500</v>
+      </c>
+      <c r="B55" t="s">
+        <v>878</v>
+      </c>
+      <c r="C55" t="s">
+        <v>879</v>
+      </c>
+      <c r="D55" t="s">
+        <v>551</v>
+      </c>
+      <c r="E55" t="s">
+        <v>552</v>
+      </c>
+      <c r="F55">
+        <v>312</v>
+      </c>
+      <c r="G55">
+        <v>554</v>
+      </c>
+      <c r="H55" t="s">
+        <v>553</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>79740</v>
+      </c>
+      <c r="B56" t="s">
+        <v>880</v>
+      </c>
+      <c r="C56" t="s">
+        <v>881</v>
+      </c>
+      <c r="D56" t="s">
+        <v>551</v>
+      </c>
+      <c r="E56" t="s">
+        <v>552</v>
+      </c>
+      <c r="F56">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>553</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>74582</v>
+      </c>
+      <c r="B57" t="s">
+        <v>882</v>
+      </c>
+      <c r="C57" t="s">
+        <v>883</v>
+      </c>
+      <c r="D57" t="s">
+        <v>551</v>
+      </c>
+      <c r="E57" t="s">
+        <v>552</v>
+      </c>
+      <c r="F57">
+        <v>127</v>
+      </c>
+      <c r="G57">
+        <v>227</v>
+      </c>
+      <c r="H57" t="s">
+        <v>553</v>
+      </c>
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9E4DD3-2DDE-41D0-A911-52A6C1FB4FF9}">
   <dimension ref="A1:K59"/>
   <sheetViews>
@@ -6257,7 +8259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1106C-E2ED-4F03-97CA-85827D3DA7B1}">
   <dimension ref="A1:E50"/>
   <sheetViews>
@@ -6738,7 +8740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -7277,7 +9279,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7310,7 +9312,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7319,11 +9329,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF3AA9-4FC1-48A3-8CC4-C9865EA1F7F6}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="62.953125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>4201481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>4201015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>442746</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>200252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>443937</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>443078</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>433350</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>4092069</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>4115272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>4178966</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>441225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>36715928</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>36674768</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>192261</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>4092074</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>4112774</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>37017016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>37204808</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>4092072</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>4095436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>4112734</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>4111024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>4180793</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>4178967</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>4181331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>36713362</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>434293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>4178960</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>432843</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>4209933</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>36713363</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>4095437</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>4110585</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>25486</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>4094866</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>4340498</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>37311469</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>433423</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>42872399</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>199754</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>440649</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>4157459</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>45763891</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>37395837</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>36683250</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>37204187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>37204852</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>37206235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>3655584</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G50">
+    <sortCondition ref="G2:G50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7985,7 +11168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB105BC-3850-4EB5-80BA-6AD06CA0A1B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -8652,7 +11835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K125"/>
   <sheetViews>
@@ -12753,7 +15936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
@@ -14155,7 +17338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G441"/>
   <sheetViews>
@@ -24320,7 +27503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
@@ -27901,1847 +31084,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J1" t="s">
-        <v>548</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>42872396</v>
-      </c>
-      <c r="B2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C2" t="s">
-        <v>773</v>
-      </c>
-      <c r="D2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>553</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>42537577</v>
-      </c>
-      <c r="B3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>40492939</v>
-      </c>
-      <c r="B4" t="s">
-        <v>776</v>
-      </c>
-      <c r="C4" t="s">
-        <v>777</v>
-      </c>
-      <c r="D4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E4" t="s">
-        <v>552</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>553</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>37208245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>778</v>
-      </c>
-      <c r="C5" t="s">
-        <v>779</v>
-      </c>
-      <c r="D5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>37018659</v>
-      </c>
-      <c r="B6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C6" t="s">
-        <v>781</v>
-      </c>
-      <c r="D6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>37016239</v>
-      </c>
-      <c r="B7" t="s">
-        <v>782</v>
-      </c>
-      <c r="C7" t="s">
-        <v>783</v>
-      </c>
-      <c r="D7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E7" t="s">
-        <v>552</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>36717495</v>
-      </c>
-      <c r="B8" t="s">
-        <v>784</v>
-      </c>
-      <c r="C8" t="s">
-        <v>785</v>
-      </c>
-      <c r="D8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E8" t="s">
-        <v>552</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>553</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>36715912</v>
-      </c>
-      <c r="B9" t="s">
-        <v>786</v>
-      </c>
-      <c r="C9" t="s">
-        <v>787</v>
-      </c>
-      <c r="D9" t="s">
-        <v>551</v>
-      </c>
-      <c r="E9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>553</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>36715911</v>
-      </c>
-      <c r="B10" t="s">
-        <v>788</v>
-      </c>
-      <c r="C10" t="s">
-        <v>789</v>
-      </c>
-      <c r="D10" t="s">
-        <v>551</v>
-      </c>
-      <c r="E10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>553</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>36713361</v>
-      </c>
-      <c r="B11" t="s">
-        <v>790</v>
-      </c>
-      <c r="C11" t="s">
-        <v>791</v>
-      </c>
-      <c r="D11" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>553</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>36683531</v>
-      </c>
-      <c r="B12" t="s">
-        <v>792</v>
-      </c>
-      <c r="C12" t="s">
-        <v>793</v>
-      </c>
-      <c r="D12" t="s">
-        <v>551</v>
-      </c>
-      <c r="E12" t="s">
-        <v>552</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>714</v>
-      </c>
-      <c r="H12" t="s">
-        <v>553</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>4322376</v>
-      </c>
-      <c r="B13" t="s">
-        <v>794</v>
-      </c>
-      <c r="C13" t="s">
-        <v>795</v>
-      </c>
-      <c r="D13" t="s">
-        <v>551</v>
-      </c>
-      <c r="E13" t="s">
-        <v>552</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>553</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>4312240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>796</v>
-      </c>
-      <c r="C14" t="s">
-        <v>797</v>
-      </c>
-      <c r="D14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" t="s">
-        <v>552</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>553</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>4312001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>798</v>
-      </c>
-      <c r="C15" t="s">
-        <v>799</v>
-      </c>
-      <c r="D15" t="s">
-        <v>551</v>
-      </c>
-      <c r="E15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>553</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>4310858</v>
-      </c>
-      <c r="B16" t="s">
-        <v>800</v>
-      </c>
-      <c r="C16" t="s">
-        <v>801</v>
-      </c>
-      <c r="D16" t="s">
-        <v>551</v>
-      </c>
-      <c r="E16" t="s">
-        <v>552</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>553</v>
-      </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>4307687</v>
-      </c>
-      <c r="B17" t="s">
-        <v>802</v>
-      </c>
-      <c r="C17" t="s">
-        <v>803</v>
-      </c>
-      <c r="D17" t="s">
-        <v>551</v>
-      </c>
-      <c r="E17" t="s">
-        <v>552</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>553</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>4256776</v>
-      </c>
-      <c r="B18" t="s">
-        <v>804</v>
-      </c>
-      <c r="C18" t="s">
-        <v>805</v>
-      </c>
-      <c r="D18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E18" t="s">
-        <v>552</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>553</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A19">
-        <v>4247719</v>
-      </c>
-      <c r="B19" t="s">
-        <v>806</v>
-      </c>
-      <c r="C19" t="s">
-        <v>807</v>
-      </c>
-      <c r="D19" t="s">
-        <v>551</v>
-      </c>
-      <c r="E19" t="s">
-        <v>552</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>553</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A20">
-        <v>4246125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>808</v>
-      </c>
-      <c r="C20" t="s">
-        <v>809</v>
-      </c>
-      <c r="D20" t="s">
-        <v>551</v>
-      </c>
-      <c r="E20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>703</v>
-      </c>
-      <c r="H20" t="s">
-        <v>553</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A21">
-        <v>4207183</v>
-      </c>
-      <c r="B21" t="s">
-        <v>810</v>
-      </c>
-      <c r="C21" t="s">
-        <v>811</v>
-      </c>
-      <c r="D21" t="s">
-        <v>551</v>
-      </c>
-      <c r="E21" t="s">
-        <v>552</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>553</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A22">
-        <v>4207182</v>
-      </c>
-      <c r="B22" t="s">
-        <v>812</v>
-      </c>
-      <c r="C22" t="s">
-        <v>813</v>
-      </c>
-      <c r="D22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E22" t="s">
-        <v>552</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>553</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A23">
-        <v>4200514</v>
-      </c>
-      <c r="B23" t="s">
-        <v>814</v>
-      </c>
-      <c r="C23" t="s">
-        <v>815</v>
-      </c>
-      <c r="D23" t="s">
-        <v>551</v>
-      </c>
-      <c r="E23" t="s">
-        <v>552</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A24">
-        <v>4198567</v>
-      </c>
-      <c r="B24" t="s">
-        <v>816</v>
-      </c>
-      <c r="C24" t="s">
-        <v>817</v>
-      </c>
-      <c r="D24" t="s">
-        <v>551</v>
-      </c>
-      <c r="E24" t="s">
-        <v>552</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>553</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A25">
-        <v>4193872</v>
-      </c>
-      <c r="B25" t="s">
-        <v>818</v>
-      </c>
-      <c r="C25" t="s">
-        <v>819</v>
-      </c>
-      <c r="D25" t="s">
-        <v>551</v>
-      </c>
-      <c r="E25" t="s">
-        <v>552</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>553</v>
-      </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A26">
-        <v>4193871</v>
-      </c>
-      <c r="B26" t="s">
-        <v>820</v>
-      </c>
-      <c r="C26" t="s">
-        <v>821</v>
-      </c>
-      <c r="D26" t="s">
-        <v>551</v>
-      </c>
-      <c r="E26" t="s">
-        <v>552</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>553</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A27">
-        <v>4193165</v>
-      </c>
-      <c r="B27" t="s">
-        <v>822</v>
-      </c>
-      <c r="C27" t="s">
-        <v>823</v>
-      </c>
-      <c r="D27" t="s">
-        <v>551</v>
-      </c>
-      <c r="E27" t="s">
-        <v>552</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>553</v>
-      </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A28">
-        <v>4184850</v>
-      </c>
-      <c r="B28" t="s">
-        <v>824</v>
-      </c>
-      <c r="C28" t="s">
-        <v>825</v>
-      </c>
-      <c r="D28" t="s">
-        <v>551</v>
-      </c>
-      <c r="E28" t="s">
-        <v>552</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>553</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A29">
-        <v>4181344</v>
-      </c>
-      <c r="B29" t="s">
-        <v>826</v>
-      </c>
-      <c r="C29" t="s">
-        <v>827</v>
-      </c>
-      <c r="D29" t="s">
-        <v>551</v>
-      </c>
-      <c r="E29" t="s">
-        <v>552</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>553</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A30">
-        <v>4180792</v>
-      </c>
-      <c r="B30" t="s">
-        <v>828</v>
-      </c>
-      <c r="C30" t="s">
-        <v>829</v>
-      </c>
-      <c r="D30" t="s">
-        <v>551</v>
-      </c>
-      <c r="E30" t="s">
-        <v>552</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>94</v>
-      </c>
-      <c r="H30" t="s">
-        <v>553</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A31">
-        <v>4180791</v>
-      </c>
-      <c r="B31" t="s">
-        <v>830</v>
-      </c>
-      <c r="C31" t="s">
-        <v>831</v>
-      </c>
-      <c r="D31" t="s">
-        <v>551</v>
-      </c>
-      <c r="E31" t="s">
-        <v>552</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>553</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A32">
-        <v>4180790</v>
-      </c>
-      <c r="B32" t="s">
-        <v>832</v>
-      </c>
-      <c r="C32" t="s">
-        <v>833</v>
-      </c>
-      <c r="D32" t="s">
-        <v>551</v>
-      </c>
-      <c r="E32" t="s">
-        <v>552</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>581</v>
-      </c>
-      <c r="H32" t="s">
-        <v>553</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A33">
-        <v>4151260</v>
-      </c>
-      <c r="B33" t="s">
-        <v>834</v>
-      </c>
-      <c r="C33" t="s">
-        <v>835</v>
-      </c>
-      <c r="D33" t="s">
-        <v>551</v>
-      </c>
-      <c r="E33" t="s">
-        <v>552</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>553</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A34">
-        <v>4149847</v>
-      </c>
-      <c r="B34" t="s">
-        <v>836</v>
-      </c>
-      <c r="C34" t="s">
-        <v>837</v>
-      </c>
-      <c r="D34" t="s">
-        <v>551</v>
-      </c>
-      <c r="E34" t="s">
-        <v>552</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>553</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A35">
-        <v>4116240</v>
-      </c>
-      <c r="B35" t="s">
-        <v>838</v>
-      </c>
-      <c r="C35" t="s">
-        <v>839</v>
-      </c>
-      <c r="D35" t="s">
-        <v>551</v>
-      </c>
-      <c r="E35" t="s">
-        <v>552</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>553</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A36">
-        <v>4115028</v>
-      </c>
-      <c r="B36" t="s">
-        <v>840</v>
-      </c>
-      <c r="C36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D36" t="s">
-        <v>551</v>
-      </c>
-      <c r="E36" t="s">
-        <v>552</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>553</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A37">
-        <v>4110575</v>
-      </c>
-      <c r="B37" t="s">
-        <v>842</v>
-      </c>
-      <c r="C37" t="s">
-        <v>843</v>
-      </c>
-      <c r="D37" t="s">
-        <v>551</v>
-      </c>
-      <c r="E37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>553</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A38">
-        <v>4089661</v>
-      </c>
-      <c r="B38" t="s">
-        <v>844</v>
-      </c>
-      <c r="C38" t="s">
-        <v>845</v>
-      </c>
-      <c r="D38" t="s">
-        <v>551</v>
-      </c>
-      <c r="E38" t="s">
-        <v>552</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>553</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A39">
-        <v>764981</v>
-      </c>
-      <c r="B39" t="s">
-        <v>846</v>
-      </c>
-      <c r="C39" t="s">
-        <v>847</v>
-      </c>
-      <c r="D39" t="s">
-        <v>551</v>
-      </c>
-      <c r="E39" t="s">
-        <v>552</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>553</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A40">
-        <v>443396</v>
-      </c>
-      <c r="B40" t="s">
-        <v>848</v>
-      </c>
-      <c r="C40" t="s">
-        <v>849</v>
-      </c>
-      <c r="D40" t="s">
-        <v>551</v>
-      </c>
-      <c r="E40" t="s">
-        <v>552</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>788</v>
-      </c>
-      <c r="H40" t="s">
-        <v>553</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A41">
-        <v>443391</v>
-      </c>
-      <c r="B41" t="s">
-        <v>850</v>
-      </c>
-      <c r="C41" t="s">
-        <v>851</v>
-      </c>
-      <c r="D41" t="s">
-        <v>551</v>
-      </c>
-      <c r="E41" t="s">
-        <v>552</v>
-      </c>
-      <c r="F41">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>553</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A42">
-        <v>443390</v>
-      </c>
-      <c r="B42" t="s">
-        <v>852</v>
-      </c>
-      <c r="C42" t="s">
-        <v>853</v>
-      </c>
-      <c r="D42" t="s">
-        <v>551</v>
-      </c>
-      <c r="E42" t="s">
-        <v>552</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>227</v>
-      </c>
-      <c r="H42" t="s">
-        <v>553</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A43">
-        <v>443384</v>
-      </c>
-      <c r="B43" t="s">
-        <v>854</v>
-      </c>
-      <c r="C43" t="s">
-        <v>855</v>
-      </c>
-      <c r="D43" t="s">
-        <v>551</v>
-      </c>
-      <c r="E43" t="s">
-        <v>552</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>553</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A44">
-        <v>443382</v>
-      </c>
-      <c r="B44" t="s">
-        <v>856</v>
-      </c>
-      <c r="C44" t="s">
-        <v>857</v>
-      </c>
-      <c r="D44" t="s">
-        <v>551</v>
-      </c>
-      <c r="E44" t="s">
-        <v>552</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s">
-        <v>553</v>
-      </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A45">
-        <v>443381</v>
-      </c>
-      <c r="B45" t="s">
-        <v>858</v>
-      </c>
-      <c r="C45" t="s">
-        <v>859</v>
-      </c>
-      <c r="D45" t="s">
-        <v>551</v>
-      </c>
-      <c r="E45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>138</v>
-      </c>
-      <c r="H45" t="s">
-        <v>553</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A46">
-        <v>441800</v>
-      </c>
-      <c r="B46" t="s">
-        <v>860</v>
-      </c>
-      <c r="C46" t="s">
-        <v>861</v>
-      </c>
-      <c r="D46" t="s">
-        <v>551</v>
-      </c>
-      <c r="E46" t="s">
-        <v>552</v>
-      </c>
-      <c r="F46">
-        <v>28</v>
-      </c>
-      <c r="G46">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s">
-        <v>553</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A47">
-        <v>438979</v>
-      </c>
-      <c r="B47" t="s">
-        <v>862</v>
-      </c>
-      <c r="C47" t="s">
-        <v>863</v>
-      </c>
-      <c r="D47" t="s">
-        <v>551</v>
-      </c>
-      <c r="E47" t="s">
-        <v>552</v>
-      </c>
-      <c r="F47">
-        <v>21</v>
-      </c>
-      <c r="G47">
-        <v>21</v>
-      </c>
-      <c r="H47" t="s">
-        <v>553</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A48">
-        <v>438699</v>
-      </c>
-      <c r="B48" t="s">
-        <v>864</v>
-      </c>
-      <c r="C48" t="s">
-        <v>865</v>
-      </c>
-      <c r="D48" t="s">
-        <v>551</v>
-      </c>
-      <c r="E48" t="s">
-        <v>552</v>
-      </c>
-      <c r="F48">
-        <v>94</v>
-      </c>
-      <c r="G48">
-        <v>94</v>
-      </c>
-      <c r="H48" t="s">
-        <v>553</v>
-      </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A49">
-        <v>438090</v>
-      </c>
-      <c r="B49" t="s">
-        <v>866</v>
-      </c>
-      <c r="C49" t="s">
-        <v>867</v>
-      </c>
-      <c r="D49" t="s">
-        <v>551</v>
-      </c>
-      <c r="E49" t="s">
-        <v>552</v>
-      </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-      <c r="H49" t="s">
-        <v>553</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A50">
-        <v>437798</v>
-      </c>
-      <c r="B50" t="s">
-        <v>868</v>
-      </c>
-      <c r="C50" t="s">
-        <v>869</v>
-      </c>
-      <c r="D50" t="s">
-        <v>551</v>
-      </c>
-      <c r="E50" t="s">
-        <v>552</v>
-      </c>
-      <c r="F50">
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>553</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A51">
-        <v>436635</v>
-      </c>
-      <c r="B51" t="s">
-        <v>870</v>
-      </c>
-      <c r="C51" t="s">
-        <v>871</v>
-      </c>
-      <c r="D51" t="s">
-        <v>551</v>
-      </c>
-      <c r="E51" t="s">
-        <v>552</v>
-      </c>
-      <c r="F51">
-        <v>44</v>
-      </c>
-      <c r="G51">
-        <v>138</v>
-      </c>
-      <c r="H51" t="s">
-        <v>553</v>
-      </c>
-      <c r="I51" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A52">
-        <v>435754</v>
-      </c>
-      <c r="B52" t="s">
-        <v>872</v>
-      </c>
-      <c r="C52" t="s">
-        <v>873</v>
-      </c>
-      <c r="D52" t="s">
-        <v>551</v>
-      </c>
-      <c r="E52" t="s">
-        <v>552</v>
-      </c>
-      <c r="F52">
-        <v>27</v>
-      </c>
-      <c r="G52">
-        <v>48</v>
-      </c>
-      <c r="H52" t="s">
-        <v>553</v>
-      </c>
-      <c r="I52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A53">
-        <v>432837</v>
-      </c>
-      <c r="B53" t="s">
-        <v>874</v>
-      </c>
-      <c r="C53" t="s">
-        <v>875</v>
-      </c>
-      <c r="D53" t="s">
-        <v>551</v>
-      </c>
-      <c r="E53" t="s">
-        <v>552</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>553</v>
-      </c>
-      <c r="I53" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A54">
-        <v>432257</v>
-      </c>
-      <c r="B54" t="s">
-        <v>876</v>
-      </c>
-      <c r="C54" t="s">
-        <v>877</v>
-      </c>
-      <c r="D54" t="s">
-        <v>551</v>
-      </c>
-      <c r="E54" t="s">
-        <v>552</v>
-      </c>
-      <c r="F54">
-        <v>8</v>
-      </c>
-      <c r="G54">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s">
-        <v>553</v>
-      </c>
-      <c r="I54" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A55">
-        <v>197500</v>
-      </c>
-      <c r="B55" t="s">
-        <v>878</v>
-      </c>
-      <c r="C55" t="s">
-        <v>879</v>
-      </c>
-      <c r="D55" t="s">
-        <v>551</v>
-      </c>
-      <c r="E55" t="s">
-        <v>552</v>
-      </c>
-      <c r="F55">
-        <v>312</v>
-      </c>
-      <c r="G55">
-        <v>554</v>
-      </c>
-      <c r="H55" t="s">
-        <v>553</v>
-      </c>
-      <c r="I55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A56">
-        <v>79740</v>
-      </c>
-      <c r="B56" t="s">
-        <v>880</v>
-      </c>
-      <c r="C56" t="s">
-        <v>881</v>
-      </c>
-      <c r="D56" t="s">
-        <v>551</v>
-      </c>
-      <c r="E56" t="s">
-        <v>552</v>
-      </c>
-      <c r="F56">
-        <v>36</v>
-      </c>
-      <c r="G56">
-        <v>36</v>
-      </c>
-      <c r="H56" t="s">
-        <v>553</v>
-      </c>
-      <c r="I56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A57">
-        <v>74582</v>
-      </c>
-      <c r="B57" t="s">
-        <v>882</v>
-      </c>
-      <c r="C57" t="s">
-        <v>883</v>
-      </c>
-      <c r="D57" t="s">
-        <v>551</v>
-      </c>
-      <c r="E57" t="s">
-        <v>552</v>
-      </c>
-      <c r="F57">
-        <v>127</v>
-      </c>
-      <c r="G57">
-        <v>227</v>
-      </c>
-      <c r="H57" t="s">
-        <v>553</v>
-      </c>
-      <c r="I57" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/CancerCandidateCodes/cancer_candidate_codes_initial_review_v1.xlsx
+++ b/CancerCandidateCodes/cancer_candidate_codes_initial_review_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/psyc0981_ox_ac_uk/Documents/Documents/GitHub/CodelistGeneratorWp2Cancers/CancerCandidateCodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{276BD902-0C1D-4243-8D1D-A0BB2B921EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582D5C60-2135-4164-B270-F6F161D1154D}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{276BD902-0C1D-4243-8D1D-A0BB2B921EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156066C6-F7BA-4E72-B4D4-D415B4CC7086}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="1304">
   <si>
     <t>concept_id</t>
   </si>
@@ -4442,7 +4442,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6284,11 +6284,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9E4DD3-2DDE-41D0-A911-52A6C1FB4FF9}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -6321,13 +6324,16 @@
       <c r="J1" t="s">
         <v>548</v>
       </c>
+      <c r="K1" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>42872396</v>
       </c>
       <c r="B2">
-        <v>1701000119104</v>
+        <v>1701000000000</v>
       </c>
       <c r="C2" t="s">
         <v>773</v>
@@ -6432,7 +6438,7 @@
         <v>37208245</v>
       </c>
       <c r="B5">
-        <v>681651000119102</v>
+        <v>681651000000000</v>
       </c>
       <c r="C5" t="s">
         <v>779</v>
@@ -6467,7 +6473,7 @@
         <v>37018659</v>
       </c>
       <c r="B6">
-        <v>96281000119107</v>
+        <v>96281000000000</v>
       </c>
       <c r="C6" t="s">
         <v>781</v>
@@ -6502,7 +6508,7 @@
         <v>37016239</v>
       </c>
       <c r="B7">
-        <v>184881000119106</v>
+        <v>184881000000000</v>
       </c>
       <c r="C7" t="s">
         <v>783</v>
@@ -6642,7 +6648,7 @@
         <v>36713361</v>
       </c>
       <c r="B11">
-        <v>681601000119101</v>
+        <v>681601000000000</v>
       </c>
       <c r="C11" t="s">
         <v>791</v>
@@ -7618,7 +7624,7 @@
         <v>764981</v>
       </c>
       <c r="B40">
-        <v>98981000119103</v>
+        <v>98981000000000</v>
       </c>
       <c r="C40" t="s">
         <v>847</v>
@@ -8263,7 +8269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1106C-E2ED-4F03-97CA-85827D3DA7B1}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -9332,7 +9338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF3AA9-4FC1-48A3-8CC4-C9865EA1F7F6}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/CancerCandidateCodes/cancer_candidate_codes_initial_review_v1.xlsx
+++ b/CancerCandidateCodes/cancer_candidate_codes_initial_review_v1.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/psyc0981_ox_ac_uk/Documents/Documents/GitHub/CodelistGeneratorWp2Cancers/CancerCandidateCodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{276BD902-0C1D-4243-8D1D-A0BB2B921EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156066C6-F7BA-4E72-B4D4-D415B4CC7086}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{276BD902-0C1D-4243-8D1D-A0BB2B921EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3118148-42FC-4047-907D-FCD94B719D44}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
     <sheet name="Version history" sheetId="11" r:id="rId2"/>
-    <sheet name="pancreatic_cancer_codes" sheetId="13" r:id="rId3"/>
-    <sheet name="liver_cancer_codes" sheetId="1" r:id="rId4"/>
-    <sheet name="liver_bile_duct_cancer_codes " sheetId="8" r:id="rId5"/>
+    <sheet name="liver_bile_duct_cancer_codes " sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="pancreatic_cancer_codes" sheetId="13" r:id="rId4"/>
+    <sheet name="liver_cancer_codes" sheetId="1" r:id="rId5"/>
     <sheet name="lung_cancer_codes" sheetId="6" r:id="rId6"/>
     <sheet name="stomach_cancer_codes" sheetId="2" r:id="rId7"/>
     <sheet name="headneck_cancer_codes" sheetId="3" r:id="rId8"/>
     <sheet name="breast_cancer_codes" sheetId="4" r:id="rId9"/>
     <sheet name="colorectal_cancer_codes" sheetId="5" r:id="rId10"/>
     <sheet name="colorectal_cancer_codes_BROAD" sheetId="10" r:id="rId11"/>
-    <sheet name="Colorectal_Specific_read1" sheetId="9" r:id="rId12"/>
-    <sheet name="prostate_cancer_codes" sheetId="7" r:id="rId13"/>
+    <sheet name="prostate_cancer_codes" sheetId="7" r:id="rId12"/>
+    <sheet name="Colorectal_Specific_read1" sheetId="9" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="1309">
   <si>
     <t>concept_id</t>
   </si>
@@ -3724,9 +3724,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>This is a codelist for QC checking of CRC codelist will not be used in main analysis</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -3751,12 +3748,6 @@
     <t>Cancer phenotyping for EHDEN wp2 use case: natural history of cancers</t>
   </si>
   <si>
-    <t>In this excel each tab shows a cancer phenotype with a focus on primary malignancy for cancer.  The concept ID and the concept name is included and whether or not each concept is included in the final definition (Include concept in definition?)</t>
-  </si>
-  <si>
-    <t>Version history:</t>
-  </si>
-  <si>
     <t>Highlights changes to the phenotypes and justification</t>
   </si>
   <si>
@@ -3769,9 +3760,6 @@
     <t>liver cancer excluding bile duct cancer</t>
   </si>
   <si>
-    <t>liver cancer including bile duct cancer</t>
-  </si>
-  <si>
     <t>lung_cancer_codes</t>
   </si>
   <si>
@@ -3790,18 +3778,9 @@
     <t>colorectal_cancer_codes</t>
   </si>
   <si>
-    <t>From collaborator</t>
-  </si>
-  <si>
-    <t>updated broader definition of initial CRC definition see version history for details</t>
-  </si>
-  <si>
     <t>Colorectal_specific_read1</t>
   </si>
   <si>
-    <t>From HDR phenotyping library for QC checking of CRC definition</t>
-  </si>
-  <si>
     <t>prostate_cancer_codes</t>
   </si>
   <si>
@@ -3956,6 +3935,65 @@
   </si>
   <si>
     <t>Additional of pancreatic cancer phenotype</t>
+  </si>
+  <si>
+    <t>Codelist generated from CodelistGenerator</t>
+  </si>
+  <si>
+    <t>Codelist received from Asieh</t>
+  </si>
+  <si>
+    <t>This is a codelist for QC checking of CRC codelist will not be used in main analysis DO NOT REVIEW</t>
+  </si>
+  <si>
+    <t>From HDR phenotyping library for QC checking of CRC definition HIDDEN NOT REQUIRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liver_bile_duct_cancer_codes </t>
+  </si>
+  <si>
+    <t>HIDDEN NOT REQUIRED</t>
+  </si>
+  <si>
+    <t>Codelist name tab</t>
+  </si>
+  <si>
+    <t>We do not need this codelist anymore as we will go forward with liver cancer excluding bile duct cancer (the codelist has been hidden in this document)</t>
+  </si>
+  <si>
+    <t>Codelist received from Asieh G</t>
+  </si>
+  <si>
+    <t>Codelist received from Andreas W</t>
+  </si>
+  <si>
+    <t>updated broader definition of initial CRC definition see version history tab for details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this excel each tab shows a cancer phenotype with a focus on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary malignancy incidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for cancer.  The concept ID and the concept name is included and whether or not each concept is included in the final definition (Include concept in definition?)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4328,10 +4366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657DBF8-C2B3-439C-852A-84F3A2DB68C3}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4341,99 +4379,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1235</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1238</v>
+        <v>1303</v>
       </c>
       <c r="B7" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B8" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1242</v>
+        <v>1238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1244</v>
+        <v>1240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1245</v>
+        <v>1241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1246</v>
+        <v>1242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B13" t="s">
-        <v>1248</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B14" t="s">
-        <v>1249</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="B15" t="s">
-        <v>1251</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B17" t="s">
         <v>1302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6357,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K2" t="s">
         <v>1162</v>
@@ -6392,7 +6449,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K3" t="s">
         <v>1162</v>
@@ -6427,7 +6484,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K4" t="s">
         <v>1162</v>
@@ -6462,7 +6519,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K5" t="s">
         <v>1162</v>
@@ -6497,7 +6554,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K6" t="s">
         <v>1162</v>
@@ -6532,7 +6589,7 @@
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K7" t="s">
         <v>1162</v>
@@ -6567,7 +6624,7 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K8" t="s">
         <v>1162</v>
@@ -6602,7 +6659,7 @@
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K9" t="s">
         <v>1162</v>
@@ -6637,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K10" t="s">
         <v>1162</v>
@@ -6672,7 +6729,7 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K11" t="s">
         <v>1162</v>
@@ -6707,7 +6764,7 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K12" t="s">
         <v>1162</v>
@@ -6742,7 +6799,7 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K13" t="s">
         <v>1162</v>
@@ -6777,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K14" t="s">
         <v>1162</v>
@@ -6812,7 +6869,7 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K15" t="s">
         <v>1162</v>
@@ -6847,7 +6904,7 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K16" t="s">
         <v>1162</v>
@@ -6882,7 +6939,7 @@
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K17" t="s">
         <v>1162</v>
@@ -6917,7 +6974,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K18" t="s">
         <v>1162</v>
@@ -6952,7 +7009,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K19" t="s">
         <v>1162</v>
@@ -6987,7 +7044,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K20" t="s">
         <v>1162</v>
@@ -7022,7 +7079,7 @@
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K21" t="s">
         <v>1162</v>
@@ -7057,7 +7114,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K22" t="s">
         <v>1162</v>
@@ -7092,7 +7149,7 @@
         <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K23" t="s">
         <v>1162</v>
@@ -7127,7 +7184,7 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K24" t="s">
         <v>1162</v>
@@ -7162,7 +7219,7 @@
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K25" t="s">
         <v>1162</v>
@@ -7197,7 +7254,7 @@
         <v>9</v>
       </c>
       <c r="J26" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K26" t="s">
         <v>1162</v>
@@ -8266,11 +8323,545 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>37016740</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>764971</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>37395835</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>553</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>37311683</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>37311236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>36716186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>36684947</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>4288534</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>4164017</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>4163261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>553</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>4161028</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>553</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>4141960</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>551</v>
+      </c>
+      <c r="E13" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>553</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>4116087</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>553</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>4082919</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>551</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>553</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>200962</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>553</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="K2:K16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1106C-E2ED-4F03-97CA-85827D3DA7B1}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8296,7 +8887,7 @@
         <v>1222</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1226</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
@@ -8746,546 +9337,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K16"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065ABB00-3EC9-48BF-B417-6D94B40F45B0}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J1" t="s">
-        <v>548</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>37016740</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>553</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>764971</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>37395835</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E4" t="s">
-        <v>552</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>553</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>37311683</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>37311236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>36716186</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E7" t="s">
-        <v>552</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>36684947</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E8" t="s">
-        <v>552</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>553</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>4288534</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D9" t="s">
-        <v>551</v>
-      </c>
-      <c r="E9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>553</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>4164017</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>551</v>
-      </c>
-      <c r="E10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>553</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>4163261</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D11" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>553</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>4161028</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>551</v>
-      </c>
-      <c r="E12" t="s">
-        <v>552</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>553</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>4141960</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>551</v>
-      </c>
-      <c r="E13" t="s">
-        <v>552</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>553</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>4116087</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" t="s">
-        <v>552</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>553</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>4082919</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>551</v>
-      </c>
-      <c r="E15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>553</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>200962</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>551</v>
-      </c>
-      <c r="E16" t="s">
-        <v>552</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>553</v>
-      </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="K2:K16"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065ABB00-3EC9-48BF-B417-6D94B40F45B0}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9297,13 +9354,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1228</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
@@ -9311,10 +9368,10 @@
         <v>44824</v>
       </c>
       <c r="B2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
@@ -9322,10 +9379,21 @@
         <v>44826</v>
       </c>
       <c r="B3" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="C3" t="s">
-        <v>1303</v>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="5">
+        <v>44833</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -9335,11 +9403,678 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB105BC-3850-4EB5-80BA-6AD06CA0A1B7}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="62.04296875" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>4200888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>4196266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>43530694</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>4115271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>4110014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>36674831</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>4001664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>4089662</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>4089663</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>4094865</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>40490929</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>36715927</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>4095432</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>4246127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>201519</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>4094864</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>4001171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>4001172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>4003021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>4099699</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>4166154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>4252535</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>37396736</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>36674832</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>37204022</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>37311916</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>3655297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
+    <sortCondition ref="G2:G29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF3AA9-4FC1-48A3-8CC4-C9865EA1F7F6}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9376,7 +10111,7 @@
         <v>4201481</v>
       </c>
       <c r="B2" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -9399,7 +10134,7 @@
         <v>4201015</v>
       </c>
       <c r="B3" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -9422,7 +10157,7 @@
         <v>442746</v>
       </c>
       <c r="B4" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9445,7 +10180,7 @@
         <v>200252</v>
       </c>
       <c r="B5" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -9468,7 +10203,7 @@
         <v>443937</v>
       </c>
       <c r="B6" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -9491,7 +10226,7 @@
         <v>443078</v>
       </c>
       <c r="B7" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -9514,7 +10249,7 @@
         <v>433350</v>
       </c>
       <c r="B8" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -9537,7 +10272,7 @@
         <v>4092069</v>
       </c>
       <c r="B9" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -9560,7 +10295,7 @@
         <v>4115272</v>
       </c>
       <c r="B10" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -9583,7 +10318,7 @@
         <v>4178966</v>
       </c>
       <c r="B11" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -9606,7 +10341,7 @@
         <v>441225</v>
       </c>
       <c r="B12" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -9629,7 +10364,7 @@
         <v>36715928</v>
       </c>
       <c r="B13" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -9652,7 +10387,7 @@
         <v>36674768</v>
       </c>
       <c r="B14" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -9675,7 +10410,7 @@
         <v>192261</v>
       </c>
       <c r="B15" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -9698,7 +10433,7 @@
         <v>4092074</v>
       </c>
       <c r="B16" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -9721,7 +10456,7 @@
         <v>4112774</v>
       </c>
       <c r="B17" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -9744,7 +10479,7 @@
         <v>37017016</v>
       </c>
       <c r="B18" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -9767,7 +10502,7 @@
         <v>37204808</v>
       </c>
       <c r="B19" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -9790,7 +10525,7 @@
         <v>4092072</v>
       </c>
       <c r="B20" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -9813,7 +10548,7 @@
         <v>4095436</v>
       </c>
       <c r="B21" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -9836,7 +10571,7 @@
         <v>4112734</v>
       </c>
       <c r="B22" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -9859,7 +10594,7 @@
         <v>4111024</v>
       </c>
       <c r="B23" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -9882,7 +10617,7 @@
         <v>4180793</v>
       </c>
       <c r="B24" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -9905,7 +10640,7 @@
         <v>4178967</v>
       </c>
       <c r="B25" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -9928,7 +10663,7 @@
         <v>4181331</v>
       </c>
       <c r="B26" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -9951,7 +10686,7 @@
         <v>36713362</v>
       </c>
       <c r="B27" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -9974,7 +10709,7 @@
         <v>434293</v>
       </c>
       <c r="B28" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -9997,7 +10732,7 @@
         <v>4178960</v>
       </c>
       <c r="B29" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -10020,7 +10755,7 @@
         <v>432843</v>
       </c>
       <c r="B30" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -10043,7 +10778,7 @@
         <v>4209933</v>
       </c>
       <c r="B31" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -10066,7 +10801,7 @@
         <v>36713363</v>
       </c>
       <c r="B32" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -10089,7 +10824,7 @@
         <v>4095437</v>
       </c>
       <c r="B33" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -10112,7 +10847,7 @@
         <v>4110585</v>
       </c>
       <c r="B34" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -10135,7 +10870,7 @@
         <v>25486</v>
       </c>
       <c r="B35" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -10158,7 +10893,7 @@
         <v>4094866</v>
       </c>
       <c r="B36" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -10181,7 +10916,7 @@
         <v>4340498</v>
       </c>
       <c r="B37" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -10204,7 +10939,7 @@
         <v>37311469</v>
       </c>
       <c r="B38" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -10227,7 +10962,7 @@
         <v>433423</v>
       </c>
       <c r="B39" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -10250,7 +10985,7 @@
         <v>42872399</v>
       </c>
       <c r="B40" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -10273,7 +11008,7 @@
         <v>199754</v>
       </c>
       <c r="B41" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -10296,7 +11031,7 @@
         <v>440649</v>
       </c>
       <c r="B42" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -10319,7 +11054,7 @@
         <v>4157459</v>
       </c>
       <c r="B43" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -10342,7 +11077,7 @@
         <v>45763891</v>
       </c>
       <c r="B44" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -10365,7 +11100,7 @@
         <v>37395837</v>
       </c>
       <c r="B45" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -10388,7 +11123,7 @@
         <v>36683250</v>
       </c>
       <c r="B46" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -10411,7 +11146,7 @@
         <v>37204187</v>
       </c>
       <c r="B47" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -10434,7 +11169,7 @@
         <v>37204852</v>
       </c>
       <c r="B48" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -10457,7 +11192,7 @@
         <v>37206235</v>
       </c>
       <c r="B49" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -10480,7 +11215,7 @@
         <v>3655584</v>
       </c>
       <c r="B50" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -10507,7 +11242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -11168,673 +11903,6 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
     <sortCondition ref="G2:G28"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB105BC-3850-4EB5-80BA-6AD06CA0A1B7}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="2" max="2" width="62.04296875" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>4200888</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>4196266</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>43530694</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>4115271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>4110014</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>36674831</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>4001664</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>4089662</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>4089663</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>4094865</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>40490929</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>36715927</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>4095432</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>4246127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>201519</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>4094864</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>4001171</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A19">
-        <v>4001172</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A20">
-        <v>4003021</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A21">
-        <v>4099699</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A22">
-        <v>4166154</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A23">
-        <v>4252535</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A24">
-        <v>37396736</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A25">
-        <v>36674832</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A26">
-        <v>37204022</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A27">
-        <v>37311916</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A28">
-        <v>3655297</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
-    <sortCondition ref="G2:G29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -27514,10 +27582,13 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
